--- a/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base_incomplete_fluxes.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base_incomplete_fluxes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="301">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
     <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
@@ -60,6 +60,15 @@
     <t xml:space="preserve">gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -708,28 +717,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -1033,7 +1039,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1044,6 +1050,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1068,32 +1078,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,29 +1147,29 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1168,15 +1177,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -1184,14 +1193,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1204,38 +1227,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1249,7 +1269,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1263,7 +1283,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1277,7 +1297,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1291,7 +1311,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1305,7 +1325,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1319,7 +1339,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1333,7 +1353,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1347,7 +1367,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1361,7 +1381,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1375,7 +1395,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1389,7 +1409,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1403,7 +1423,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1417,7 +1437,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1431,7 +1451,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1445,7 +1465,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1459,7 +1479,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1473,7 +1493,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1487,7 +1507,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1501,7 +1521,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1515,7 +1535,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1529,7 +1549,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1543,7 +1563,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1557,7 +1577,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1571,7 +1591,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1585,7 +1605,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1599,7 +1619,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1613,7 +1633,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1627,7 +1647,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1641,7 +1661,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1655,7 +1675,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1669,7 +1689,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1683,7 +1703,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1707,38 +1727,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1752,7 +1769,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1766,7 +1783,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1780,7 +1797,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1794,7 +1811,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1808,7 +1825,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1822,7 +1839,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1836,7 +1853,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1850,7 +1867,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1864,7 +1881,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1878,7 +1895,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1892,7 +1909,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1906,7 +1923,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1920,7 +1937,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1934,7 +1951,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1948,7 +1965,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1962,7 +1979,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1976,7 +1993,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1990,7 +2007,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2004,7 +2021,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2018,7 +2035,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2032,7 +2049,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -2046,7 +2063,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -2060,7 +2077,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2074,7 +2091,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2088,7 +2105,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2102,7 +2119,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2116,7 +2133,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2130,7 +2147,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2144,7 +2161,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2158,7 +2175,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2172,7 +2189,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2186,7 +2203,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2200,7 +2217,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2214,7 +2231,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2228,7 +2245,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -2242,7 +2259,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2256,7 +2273,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -2270,7 +2287,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -2284,7 +2301,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2308,307 +2325,307 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="39.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="6.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="5.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="4.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="4.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="39.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="6.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="5.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="14.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="5" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>243</v>
+      <c r="A2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>245</v>
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>247</v>
+      <c r="A4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="0"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>248</v>
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>250</v>
+      <c r="A6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>251</v>
+      <c r="A7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="0"/>
       <c r="H7" s="0"/>
-      <c r="I7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J7" s="7" t="n">
+      <c r="I7" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="0"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>253</v>
+      <c r="A8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>254</v>
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K9" s="0"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>256</v>
+      <c r="A10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="0"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>259</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K11" s="0"/>
@@ -2618,131 +2635,131 @@
       <c r="O11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>259</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K12" s="0"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>262</v>
+      <c r="A13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="0"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>264</v>
+      <c r="A14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="7" t="s">
-        <v>265</v>
+      <c r="E14" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="F14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="0"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>266</v>
+      <c r="A15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="7" t="s">
-        <v>267</v>
+      <c r="E15" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="F15" s="0"/>
       <c r="H15" s="0"/>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>268</v>
+      <c r="A16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C16" s="0"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="F16" s="0"/>
-      <c r="H16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7" t="n">
+      <c r="H16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K16" s="0"/>
@@ -2752,483 +2769,483 @@
       <c r="O16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>268</v>
+      <c r="A17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C17" s="0"/>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="F17" s="0"/>
-      <c r="H17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="n">
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K17" s="0"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>270</v>
+      <c r="A18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="D18" s="0"/>
       <c r="F18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="0"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>272</v>
+      <c r="A19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="F19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K19" s="0"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>272</v>
+      <c r="A20" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="F20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K20" s="0"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>274</v>
+      <c r="A21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K21" s="0"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>275</v>
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="F22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K22" s="0"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>277</v>
+      <c r="A23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="F23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K23" s="0"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>278</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="F24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K24" s="0"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>279</v>
+      <c r="A25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="F25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
+      <c r="A26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K26" s="0"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>282</v>
+      <c r="A27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="8" t="n">
         <v>3</v>
       </c>
       <c r="K27" s="0"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>283</v>
+      <c r="A28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K28" s="0"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>285</v>
+      <c r="A29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>287</v>
+      <c r="A30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="8" t="n">
         <v>4</v>
       </c>
       <c r="K30" s="0"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>288</v>
+      <c r="A31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K31" s="0"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>290</v>
+      <c r="A32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="8" t="n">
         <v>4</v>
       </c>
       <c r="K32" s="0"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>291</v>
+      <c r="A33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="0"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>292</v>
+      <c r="A34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K34" s="0"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="0"/>
-      <c r="O34" s="7"/>
+      <c r="O34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>293</v>
+      <c r="A35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K35" s="0"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="I36" s="7" t="n">
+      <c r="A36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="J37" s="7" t="n">
+      <c r="A37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="J38" s="7" t="n">
+      <c r="C38" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3242,7 +3259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3252,163 +3269,160 @@
       <selection pane="topLeft" activeCell="AP1" activeCellId="0" sqref="AP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
+      <c r="A1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -3557,7 +3571,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3706,7 +3720,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -3855,7 +3869,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4004,7 +4018,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4153,7 +4167,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4302,7 +4316,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4451,7 +4465,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -4600,7 +4614,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -4749,7 +4763,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -4898,7 +4912,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5047,7 +5061,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5196,7 +5210,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5345,7 +5359,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5494,7 +5508,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5643,7 +5657,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5792,7 +5806,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -5941,7 +5955,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6090,7 +6104,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6239,7 +6253,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6388,7 +6402,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6537,7 +6551,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -6686,7 +6700,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6835,7 +6849,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -6984,7 +6998,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7133,7 +7147,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7282,7 +7296,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7431,7 +7445,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -7580,7 +7594,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -7729,7 +7743,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7878,7 +7892,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8027,7 +8041,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8176,7 +8190,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -8325,7 +8339,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -8474,7 +8488,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -8623,7 +8637,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -8772,7 +8786,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -8921,7 +8935,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -9070,7 +9084,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -9219,7 +9233,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -9368,7 +9382,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -9527,7 +9541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9537,32 +9551,31 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -9570,10 +9583,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -9581,10 +9594,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -9592,10 +9605,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -9603,10 +9616,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -9614,10 +9627,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -9625,10 +9638,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -9636,10 +9649,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -9647,10 +9660,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -9658,10 +9671,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -9669,10 +9682,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -9680,10 +9693,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -9691,10 +9704,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -9702,10 +9715,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -9713,10 +9726,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -9724,10 +9737,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -9735,10 +9748,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -9746,10 +9759,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -9757,10 +9770,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -9768,10 +9781,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>128</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -9779,10 +9792,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -9790,10 +9803,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -9801,10 +9814,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -9812,10 +9825,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -9823,10 +9836,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -9834,10 +9847,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -9845,10 +9858,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -9856,10 +9869,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -9867,10 +9880,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -9878,10 +9891,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -9889,10 +9902,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -9900,10 +9913,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -9911,10 +9924,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -9922,10 +9935,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -9933,10 +9946,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>143</v>
+        <v>54</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -9944,10 +9957,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>144</v>
+        <v>55</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -9955,10 +9968,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>56</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -9966,10 +9979,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>57</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -9977,10 +9990,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -9988,10 +10001,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -9999,7 +10012,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -10007,7 +10020,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -10015,7 +10028,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -10023,7 +10036,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -10031,7 +10044,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -10039,7 +10052,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -10047,7 +10060,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -10055,7 +10068,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -10073,7 +10086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10083,35 +10096,34 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -10119,10 +10131,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -10130,10 +10142,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -10141,10 +10153,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -10152,10 +10164,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -10163,10 +10175,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -10174,10 +10186,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -10185,10 +10197,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -10196,10 +10208,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -10207,10 +10219,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -10218,10 +10230,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -10229,10 +10241,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -10240,10 +10252,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -10251,10 +10263,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -10262,10 +10274,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -10273,10 +10285,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -10284,10 +10296,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -10295,10 +10307,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -10306,10 +10318,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -10317,10 +10329,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -10328,10 +10340,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -10339,10 +10351,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -10350,10 +10362,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -10361,10 +10373,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -10372,10 +10384,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>179</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -10383,10 +10395,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -10394,10 +10406,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>90</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -10405,10 +10417,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>182</v>
+        <v>91</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -10416,10 +10428,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -10427,10 +10439,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -10438,10 +10450,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>185</v>
+        <v>94</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -10449,10 +10461,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>186</v>
+        <v>95</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -10460,10 +10472,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>187</v>
+        <v>96</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -10471,10 +10483,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -10482,10 +10494,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -10493,10 +10505,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -10504,10 +10516,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -10522,7 +10534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10532,214 +10544,211 @@
       <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10754,7 +10763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10764,214 +10773,211 @@
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10986,7 +10992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10996,31 +11002,30 @@
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-5</v>
@@ -11031,7 +11036,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">-26.4-0.6</f>
@@ -11042,28 +11047,28 @@
         <v>-25.8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <f aca="false">-17.3-0.9</f>
         <v>-18.2</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <f aca="false">-17.3+0.9</f>
         <v>-16.4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-5</v>
@@ -11074,7 +11079,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -11085,7 +11090,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">-10.1-6.4</f>
@@ -11096,12 +11101,12 @@
         <v>-3.7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-5</v>
@@ -11112,7 +11117,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-5</v>
@@ -11123,7 +11128,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">-7.6-6.9</f>
@@ -11134,12 +11139,12 @@
         <v>-0.699999999999999</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">-21.8-3.9</f>
@@ -11150,12 +11155,12 @@
         <v>-17.9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">-116.1-8.5</f>
@@ -11165,13 +11170,13 @@
         <f aca="false">-116.1+8.5</f>
         <v>-107.6</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>202</v>
+      <c r="E12" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">-66.5-6.2</f>
@@ -11182,12 +11187,12 @@
         <v>-60.3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">-2.3-2.6</f>
@@ -11198,12 +11203,12 @@
         <v>0.3</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">-20.9-3.3</f>
@@ -11214,12 +11219,12 @@
         <v>-17.6</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">11.2-6.3</f>
@@ -11230,12 +11235,12 @@
         <v>17.5</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">-1.9-1.5</f>
@@ -11246,12 +11251,12 @@
         <v>-0.4</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">-3.4-2.3</f>
@@ -11262,12 +11267,12 @@
         <v>-1.1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">-3.8-3.8</f>
@@ -11278,12 +11283,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">-10-3.8</f>
@@ -11294,12 +11299,12 @@
         <v>-6.2</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">-0.7-2.8</f>
@@ -11310,12 +11315,12 @@
         <v>2.1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">-43.1-5.1</f>
@@ -11326,12 +11331,12 @@
         <v>-38</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">15.5-4.1</f>
@@ -11342,12 +11347,12 @@
         <v>19.6</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">2.5-0.8</f>
@@ -11358,12 +11363,12 @@
         <v>3.3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">-11.4-1.4</f>
@@ -11374,15 +11379,15 @@
         <v>-10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">-19.8-1</f>
@@ -11393,15 +11398,15 @@
         <v>-18.8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">-5.5-1.1</f>
@@ -11412,12 +11417,12 @@
         <v>-4.4</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">7.8-0.8</f>
@@ -11428,12 +11433,12 @@
         <v>8.6</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">-18.5-0.9</f>
@@ -11444,12 +11449,12 @@
         <v>-17.6</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">4.2-0.7</f>
@@ -11460,12 +11465,12 @@
         <v>4.9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">-4.1-0.6</f>
@@ -11476,12 +11481,12 @@
         <v>-3.5</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">-27.7-0.8</f>
@@ -11492,12 +11497,12 @@
         <v>-26.9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-5</v>
@@ -11508,7 +11513,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-5</v>
@@ -11529,7 +11534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -11539,28 +11544,27 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -11571,7 +11575,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -11582,7 +11586,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9.35806519989021E-005</v>
@@ -11593,7 +11597,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11604,7 +11608,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.33019869888442E-005</v>
@@ -11615,7 +11619,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11626,7 +11630,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.000188126472700168</v>
@@ -11637,7 +11641,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -11648,7 +11652,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -11659,7 +11663,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -11670,7 +11674,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>5.24113154902746E-006</v>
@@ -11681,7 +11685,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -11692,7 +11696,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -11703,7 +11707,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -11714,7 +11718,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -11725,7 +11729,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4.78647895557551E-007</v>
@@ -11736,7 +11740,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1.08578172251465E-005</v>
@@ -11747,7 +11751,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -11758,7 +11762,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -11769,7 +11773,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -11780,7 +11784,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -11791,7 +11795,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1.21731956073935E-005</v>
@@ -11802,7 +11806,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1.56386773727797E-006</v>
@@ -11813,7 +11817,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -11824,7 +11828,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.13E-013</v>
@@ -11835,7 +11839,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2.82926534545702E-005</v>
@@ -11846,7 +11850,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -11857,7 +11861,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>3.80512459944155E-005</v>
@@ -11868,7 +11872,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -11879,7 +11883,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.60939376063701E-005</v>
@@ -11890,7 +11894,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2.72093271819032E-006</v>
@@ -11901,7 +11905,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.9530546875E-005</v>
@@ -11912,9 +11916,9 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5" t="n">
         <v>4.33178204203296E-005</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -11923,7 +11927,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>6.51619851996748E-007</v>
@@ -11934,7 +11938,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -11945,7 +11949,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2.13E-013</v>
@@ -11956,7 +11960,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2.13E-013</v>
@@ -11967,7 +11971,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>6.8444481038267E-005</v>
@@ -11978,7 +11982,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -11989,7 +11993,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -12010,39 +12014,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">B3+B12</f>
@@ -12054,7 +12057,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>600</v>
@@ -12065,7 +12068,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B14-B23</f>
@@ -12077,7 +12080,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -12088,7 +12091,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">4.79*10^3</f>
@@ -12101,7 +12104,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">4.79*10^3</f>
@@ -12114,7 +12117,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -12125,7 +12128,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -12138,7 +12141,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -12151,7 +12154,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -12164,7 +12167,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">5.51*10^3</f>
@@ -12177,7 +12180,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -12190,7 +12193,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">1.17*10^3</f>
@@ -12203,7 +12206,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">1.17*10^3</f>
@@ -12216,7 +12219,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">0.59*10^3</f>
@@ -12229,7 +12232,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">0.44*10^3</f>
@@ -12242,7 +12245,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -12255,7 +12258,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">0.01*10^3</f>
@@ -12281,7 +12284,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -12294,7 +12297,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -12307,7 +12310,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">0.57*10^3</f>
@@ -12320,7 +12323,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -12333,7 +12336,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -12346,7 +12349,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -12359,7 +12362,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">5.11*10^3</f>
@@ -12372,7 +12375,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">5.11*10^3</f>
@@ -12385,7 +12388,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">4.36*10^3</f>
@@ -12398,7 +12401,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">4.36*10^3</f>
@@ -12411,7 +12414,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">3.89*10^3</f>
@@ -12424,7 +12427,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">B22+B31</f>
@@ -12436,7 +12439,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">B30-B31</f>
@@ -12448,7 +12451,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="n">
         <f aca="false">B28-B29</f>
@@ -12460,7 +12463,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">SUM(B7,B11,B14)-SUM(B16,B22)</f>
@@ -12472,7 +12475,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B36" s="0" t="n">
         <f aca="false">B16</f>
@@ -12484,7 +12487,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B37" s="0" t="n">
         <f aca="false">B17-B19</f>
@@ -12496,7 +12499,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B38" s="0" t="n">
         <f aca="false">B18-SUM(B19:B20)</f>
@@ -12508,7 +12511,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B39" s="0" t="n">
         <f aca="false">SUM(B19:B20,B22)-SUM(B21,B27,B25,B26)</f>
@@ -12520,7 +12523,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B40" s="0" t="n">
         <f aca="false">B21-B20</f>
@@ -12532,7 +12535,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B41" s="0" t="n">
         <f aca="false">SUM(B24,B21,B20)-B23</f>
